--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palad\Desktop\123\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palad\Desktop\fmh-android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB0E752-4698-4ECB-AF04-6A3F4AE85C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8C39CE-BE6F-4119-A7CC-CC932358B27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>№</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Причина </t>
+  </si>
+  <si>
+    <t>Ожидалось, что редактирование притензии будет доступно при раскрытии аккордеона задачи</t>
+  </si>
+  <si>
+    <t>Смена порядка новостей переносит фокус экрана на конец списка новостей, когда ожидалось, что список "перевернётся"(Последнее станет первым и наоборот).</t>
   </si>
 </sst>
 </file>
@@ -203,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,8 +230,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,9 +553,10 @@
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="51.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,8 +566,11 @@
       <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -558,8 +580,9 @@
       <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -569,8 +592,9 @@
       <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -580,8 +604,9 @@
       <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -591,8 +616,9 @@
       <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -602,8 +628,9 @@
       <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -613,8 +640,9 @@
       <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -624,8 +652,9 @@
       <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -635,8 +664,9 @@
       <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -646,8 +676,9 @@
       <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -657,8 +688,9 @@
       <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -668,8 +700,9 @@
       <c r="C12" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -679,8 +712,9 @@
       <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -690,19 +724,23 @@
       <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -712,8 +750,9 @@
       <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -723,8 +762,9 @@
       <c r="C17" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -734,19 +774,23 @@
       <c r="C18" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -756,8 +800,9 @@
       <c r="C20" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -767,8 +812,9 @@
       <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -778,8 +824,9 @@
       <c r="C22" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -789,8 +836,9 @@
       <c r="C23" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -800,8 +848,9 @@
       <c r="C24" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -811,8 +860,9 @@
       <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -822,8 +872,9 @@
       <c r="C26" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -833,8 +884,9 @@
       <c r="C27" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -844,8 +896,9 @@
       <c r="C28" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -855,6 +908,7 @@
       <c r="C29" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="D29" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C30">
